--- a/biology/Zoologie/Crenuchidae/Crenuchidae.xlsx
+++ b/biology/Zoologie/Crenuchidae/Crenuchidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crenuchidae forment une famille de poissons d'eau douce appartenant à l'ordre des Characiformes. Cette famille regroupe 12 genres. Les Crenuchidae ou dard de sable d'Amérique du Sud regroupes 12 genres comprennent environ 74 espèces, bien que plusieurs espèces sont non décrites[1]. Ces poissons sont relativement petits (généralement moins de 10 cm (4 po) de longueur standard) et proviennent de l'Est du Panama et de l'Amérique du Sud[1] les deux sous-familles ont déjà été inclus dans la famille Characidae, et ont été placés dans une famille séparée par Buckup, 1998[2]. En 1993 Buckup a révisé tous les genres, sauf les Characidium[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crenuchidae forment une famille de poissons d'eau douce appartenant à l'ordre des Characiformes. Cette famille regroupe 12 genres. Les Crenuchidae ou dard de sable d'Amérique du Sud regroupes 12 genres comprennent environ 74 espèces, bien que plusieurs espèces sont non décrites. Ces poissons sont relativement petits (généralement moins de 10 cm (4 po) de longueur standard) et proviennent de l'Est du Panama et de l'Amérique du Sud les deux sous-familles ont déjà été inclus dans la famille Characidae, et ont été placés dans une famille séparée par Buckup, 1998. En 1993 Buckup a révisé tous les genres, sauf les Characidium.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                            (04 juin 2015)[3]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                            (04 juin 2015):
 Crenuchinae
 genre Crenuchus
 genre Poecilocharax
